--- a/Python/acc_p_value_matrix_knn.xlsx
+++ b/Python/acc_p_value_matrix_knn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rodrigo S. Hirama\Documentos\EACH\IC\Classification-of-mammography-images\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB297127-E878-4059-91E3-BB75DAE4F9C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC86053-AF2C-48DF-B7FE-B824613B64B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -439,61 +439,61 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.434496115618484</v>
+        <v>0.61578674294434155</v>
       </c>
       <c r="D2">
-        <v>4.6095021601805952E-2</v>
+        <v>4.3820969824126879E-2</v>
       </c>
       <c r="E2">
-        <v>0.94739785959630995</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.89669412023870065</v>
+        <v>0.52932764821179301</v>
       </c>
       <c r="G2">
-        <v>6.7096981114504678E-3</v>
+        <v>4.8657437060812738E-3</v>
       </c>
       <c r="H2">
-        <v>6.930770933188958E-2</v>
+        <v>5.8939982585291942E-2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.94837475940952953</v>
       </c>
       <c r="J2">
-        <v>0.35207569997601929</v>
+        <v>0.5283345012943903</v>
       </c>
       <c r="K2">
-        <v>0.55704549717734086</v>
+        <v>0.52932764821179301</v>
       </c>
       <c r="L2">
-        <v>0.57522203692159246</v>
+        <v>0.68037996819332225</v>
       </c>
       <c r="M2">
-        <v>0.70378374584886028</v>
+        <v>0.75156510803623333</v>
       </c>
       <c r="N2">
-        <v>0.20403088802123151</v>
+        <v>0.14370393491301711</v>
       </c>
       <c r="O2">
-        <v>0.44458136983456092</v>
+        <v>0.41467409355957308</v>
       </c>
       <c r="P2">
-        <v>0.68523961720982285</v>
+        <v>0.51446721467436141</v>
       </c>
       <c r="Q2">
-        <v>0.30803564821317059</v>
+        <v>0.40076172203565641</v>
       </c>
       <c r="R2">
-        <v>0.77943950638061077</v>
+        <v>0.9479313915184695</v>
       </c>
       <c r="S2">
-        <v>0.58736698487219829</v>
+        <v>0.4754046496834905</v>
       </c>
       <c r="T2">
-        <v>3.6098608069748319E-4</v>
+        <v>1.023182874321844E-4</v>
       </c>
       <c r="U2">
-        <v>6.7506821448687998E-2</v>
+        <v>6.178578140636326E-2</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -501,64 +501,64 @@
         <v>2E-3</v>
       </c>
       <c r="B3">
-        <v>0.434496115618484</v>
+        <v>0.61578674294434155</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.27191393990852958</v>
+        <v>0.16310255631863191</v>
       </c>
       <c r="E3">
-        <v>0.41973330961872313</v>
+        <v>0.6265703217430949</v>
       </c>
       <c r="F3">
-        <v>0.39171227975029849</v>
+        <v>0.29037251833781241</v>
       </c>
       <c r="G3">
-        <v>7.36832974053062E-2</v>
+        <v>3.1175647225461511E-2</v>
       </c>
       <c r="H3">
-        <v>0.32630811890859818</v>
+        <v>0.19469903263212829</v>
       </c>
       <c r="I3">
-        <v>0.453271559930704</v>
+        <v>0.67304762826290898</v>
       </c>
       <c r="J3">
-        <v>0.90038020163374255</v>
+        <v>0.90615425718217546</v>
       </c>
       <c r="K3">
-        <v>0.19721675073972689</v>
+        <v>0.29037251833781252</v>
       </c>
       <c r="L3">
-        <v>0.79332415221744912</v>
+        <v>0.89906099985016674</v>
       </c>
       <c r="M3">
-        <v>0.28133381655828588</v>
+        <v>0.4423473482656769</v>
       </c>
       <c r="N3">
-        <v>0.6594875281429039</v>
+        <v>0.38726788280034619</v>
       </c>
       <c r="O3">
-        <v>0.94811454983313659</v>
+        <v>0.80130513345751242</v>
       </c>
       <c r="P3">
-        <v>0.70350792866947709</v>
+        <v>0.90340895308674318</v>
       </c>
       <c r="Q3">
-        <v>0.84812838732540707</v>
+        <v>0.76324822724349817</v>
       </c>
       <c r="R3">
-        <v>0.60063124558942804</v>
+        <v>0.67075701877517158</v>
       </c>
       <c r="S3">
-        <v>0.20371214979071539</v>
+        <v>0.25162869698295548</v>
       </c>
       <c r="T3">
-        <v>4.575078001129776E-5</v>
+        <v>4.4543126640315608E-5</v>
       </c>
       <c r="U3">
-        <v>1.354531692652167E-2</v>
+        <v>2.672990149423795E-2</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -566,64 +566,64 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="B4">
-        <v>4.6095021601805952E-2</v>
+        <v>4.3820969824126879E-2</v>
       </c>
       <c r="C4">
-        <v>0.27191393990852958</v>
+        <v>0.16310255631863191</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>5.0497366886527152E-2</v>
+        <v>5.1163833080877741E-2</v>
       </c>
       <c r="F4">
-        <v>4.6730683553697257E-2</v>
+        <v>1.3143137895877051E-2</v>
       </c>
       <c r="G4">
-        <v>0.4555259243020453</v>
+        <v>0.41684670973332161</v>
       </c>
       <c r="H4">
-        <v>0.94841847591833428</v>
+        <v>0.95117196577448115</v>
       </c>
       <c r="I4">
-        <v>5.6735998646618997E-2</v>
+        <v>6.1518517098727687E-2</v>
       </c>
       <c r="J4">
-        <v>0.3223152380473927</v>
+        <v>0.20041739601650191</v>
       </c>
       <c r="K4">
-        <v>1.4497062225910439E-2</v>
+        <v>1.3143137895877059E-2</v>
       </c>
       <c r="L4">
-        <v>0.14541669024509141</v>
+        <v>9.9455462333274833E-2</v>
       </c>
       <c r="M4">
-        <v>2.849113281043078E-2</v>
+        <v>2.82517000099562E-2</v>
       </c>
       <c r="N4">
-        <v>0.50630407767564778</v>
+        <v>0.5629118637611128</v>
       </c>
       <c r="O4">
-        <v>0.2151119253002452</v>
+        <v>0.21382939223183439</v>
       </c>
       <c r="P4">
-        <v>0.12407193522044629</v>
+        <v>0.18658293087861949</v>
       </c>
       <c r="Q4">
-        <v>0.34496305129166088</v>
+        <v>0.26095461426126432</v>
       </c>
       <c r="R4">
-        <v>8.3637784284993077E-2</v>
+        <v>5.9478993548142983E-2</v>
       </c>
       <c r="S4">
-        <v>1.341137180433952E-2</v>
+        <v>8.9690322740915741E-3</v>
       </c>
       <c r="T4">
-        <v>9.6350182920036187E-8</v>
+        <v>2.84872129893819E-8</v>
       </c>
       <c r="U4">
-        <v>2.0426249740795641E-4</v>
+        <v>2.2540278425247989E-4</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -631,64 +631,64 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="B5">
-        <v>0.94739785959630995</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0.41973330961872313</v>
+        <v>0.6265703217430949</v>
       </c>
       <c r="D5">
-        <v>5.0497366886527152E-2</v>
+        <v>5.1163833080877741E-2</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.95064506025245943</v>
+        <v>0.54200130472263974</v>
       </c>
       <c r="G5">
-        <v>8.354429973564061E-3</v>
+        <v>6.3958725902112561E-3</v>
       </c>
       <c r="H5">
-        <v>7.2926568467451214E-2</v>
+        <v>6.7134558779376269E-2</v>
       </c>
       <c r="I5">
-        <v>0.94957063534983366</v>
+        <v>0.95004132414577502</v>
       </c>
       <c r="J5">
-        <v>0.3429341953764995</v>
+        <v>0.5410858442676626</v>
       </c>
       <c r="K5">
-        <v>0.61884473976267018</v>
+        <v>0.54200130472263996</v>
       </c>
       <c r="L5">
-        <v>0.55079613561659868</v>
+        <v>0.69132270014294284</v>
       </c>
       <c r="M5">
-        <v>0.76207468172208848</v>
+        <v>0.75901826008335305</v>
       </c>
       <c r="N5">
-        <v>0.20373064255080431</v>
+        <v>0.15781277673149671</v>
       </c>
       <c r="O5">
-        <v>0.42963994164707148</v>
+        <v>0.43141267856301302</v>
       </c>
       <c r="P5">
-        <v>0.65333410714472095</v>
+        <v>0.52833450129438519</v>
       </c>
       <c r="Q5">
-        <v>0.30206483725983679</v>
+        <v>0.41610922609376511</v>
       </c>
       <c r="R5">
-        <v>0.74042264896366117</v>
+        <v>0.94963985281576413</v>
       </c>
       <c r="S5">
-        <v>0.65208482822343583</v>
+        <v>0.48984806165572869</v>
       </c>
       <c r="T5">
-        <v>8.5509680398509482E-4</v>
+        <v>1.6770209976527871E-4</v>
       </c>
       <c r="U5">
-        <v>9.4453362541475183E-2</v>
+        <v>7.0598207875375407E-2</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -696,64 +696,64 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B6">
-        <v>0.89669412023870065</v>
+        <v>0.52932764821179301</v>
       </c>
       <c r="C6">
-        <v>0.39171227975029849</v>
+        <v>0.29037251833781241</v>
       </c>
       <c r="D6">
-        <v>4.6730683553697257E-2</v>
+        <v>1.3143137895877051E-2</v>
       </c>
       <c r="E6">
-        <v>0.95064506025245943</v>
+        <v>0.54200130472263974</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.8253360576321061E-3</v>
+        <v>1.292789711330664E-3</v>
       </c>
       <c r="H6">
-        <v>6.7474859067076759E-2</v>
+        <v>1.8648550529641771E-2</v>
       </c>
       <c r="I6">
-        <v>0.90081762810586863</v>
+        <v>0.50625125757702971</v>
       </c>
       <c r="J6">
-        <v>0.3189687169679028</v>
+        <v>0.23802887074054491</v>
       </c>
       <c r="K6">
-        <v>0.66782499615690027</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.51434047129439286</v>
+        <v>0.30937034975603128</v>
       </c>
       <c r="M6">
-        <v>0.81115021976852664</v>
+        <v>0.76689331046100806</v>
       </c>
       <c r="N6">
-        <v>0.18869404728341091</v>
+        <v>4.8384529210852761E-2</v>
       </c>
       <c r="O6">
-        <v>0.39984302395931032</v>
+        <v>0.16605594747062341</v>
       </c>
       <c r="P6">
-        <v>0.61321506533544445</v>
+        <v>0.22448997030386361</v>
       </c>
       <c r="Q6">
-        <v>0.28033563942121048</v>
+        <v>0.16569489581140731</v>
       </c>
       <c r="R6">
-        <v>0.69570733809407304</v>
+        <v>0.50307664806015628</v>
       </c>
       <c r="S6">
-        <v>0.70350792866948753</v>
+        <v>0.95167516945435071</v>
       </c>
       <c r="T6">
-        <v>1.258135812649875E-3</v>
+        <v>2.2553358471369129E-3</v>
       </c>
       <c r="U6">
-        <v>0.1131965007178386</v>
+        <v>0.25180343565057223</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -761,64 +761,64 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="B7">
-        <v>6.7096981114504678E-3</v>
+        <v>4.8657437060812738E-3</v>
       </c>
       <c r="C7">
-        <v>7.36832974053062E-2</v>
+        <v>3.1175647225461511E-2</v>
       </c>
       <c r="D7">
-        <v>0.4555259243020453</v>
+        <v>0.41684670973332161</v>
       </c>
       <c r="E7">
-        <v>8.354429973564061E-3</v>
+        <v>6.3958725902112561E-3</v>
       </c>
       <c r="F7">
-        <v>7.8253360576321061E-3</v>
+        <v>1.292789711330664E-3</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.44207987926225317</v>
+        <v>0.39631005591174562</v>
       </c>
       <c r="I7">
-        <v>9.5147988340831477E-3</v>
+        <v>8.2615017175693521E-3</v>
       </c>
       <c r="J7">
-        <v>9.0043262853032102E-2</v>
+        <v>4.0718953073219537E-2</v>
       </c>
       <c r="K7">
-        <v>1.8774474283305091E-3</v>
+        <v>1.2927897113306679E-3</v>
       </c>
       <c r="L7">
-        <v>2.867877398357991E-2</v>
+        <v>1.3683707657002841E-2</v>
       </c>
       <c r="M7">
-        <v>4.480523412606535E-3</v>
+        <v>3.2549237224667698E-3</v>
       </c>
       <c r="N7">
-        <v>0.16767502868805939</v>
+        <v>0.1626418431846593</v>
       </c>
       <c r="O7">
-        <v>4.875951915301599E-2</v>
+        <v>3.9076848182855881E-2</v>
       </c>
       <c r="P7">
-        <v>2.485691651074301E-2</v>
+        <v>3.4925718204621058E-2</v>
       </c>
       <c r="Q7">
-        <v>9.575975764638503E-2</v>
+        <v>5.6044011127721172E-2</v>
       </c>
       <c r="R7">
-        <v>1.4065335514580189E-2</v>
+        <v>7.7768046436809263E-3</v>
       </c>
       <c r="S7">
-        <v>1.5746962594951159E-3</v>
+        <v>7.5742260359696343E-4</v>
       </c>
       <c r="T7">
-        <v>3.0276603790771811E-9</v>
+        <v>5.3769305521766254E-10</v>
       </c>
       <c r="U7">
-        <v>1.2456939479086269E-5</v>
+        <v>1.036091127761262E-5</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -826,64 +826,64 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="B8">
-        <v>6.930770933188958E-2</v>
+        <v>5.8939982585291942E-2</v>
       </c>
       <c r="C8">
-        <v>0.32630811890859818</v>
+        <v>0.19469903263212829</v>
       </c>
       <c r="D8">
-        <v>0.94841847591833428</v>
+        <v>0.95117196577448115</v>
       </c>
       <c r="E8">
-        <v>7.2926568467451214E-2</v>
+        <v>6.7134558779376269E-2</v>
       </c>
       <c r="F8">
-        <v>6.7474859067076759E-2</v>
+        <v>1.8648550529641771E-2</v>
       </c>
       <c r="G8">
-        <v>0.44207987926225317</v>
+        <v>0.39631005591174562</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>8.1225329307354058E-2</v>
+        <v>7.9375471831542685E-2</v>
       </c>
       <c r="J8">
-        <v>0.38156323336125791</v>
+        <v>0.2360370501094417</v>
       </c>
       <c r="K8">
-        <v>2.3756071628204568E-2</v>
+        <v>1.8648550529641771E-2</v>
       </c>
       <c r="L8">
-        <v>0.19135326917896539</v>
+        <v>0.12605748620296481</v>
       </c>
       <c r="M8">
-        <v>4.2715604812938401E-2</v>
+        <v>3.8179705693123851E-2</v>
       </c>
       <c r="N8">
-        <v>0.57129234308322197</v>
+        <v>0.61840446145124717</v>
       </c>
       <c r="O8">
-        <v>0.26959240069849788</v>
+        <v>0.25445683037625488</v>
       </c>
       <c r="P8">
-        <v>0.16402810412690161</v>
+        <v>0.22240546292865579</v>
       </c>
       <c r="Q8">
-        <v>0.40723413999218172</v>
+        <v>0.3028891876154638</v>
       </c>
       <c r="R8">
-        <v>0.1175030651215235</v>
+        <v>7.7149499595232901E-2</v>
       </c>
       <c r="S8">
-        <v>2.2820218490258899E-2</v>
+        <v>1.3265308726639891E-2</v>
       </c>
       <c r="T8">
-        <v>5.5205208293926266E-7</v>
+        <v>9.2433497746384397E-8</v>
       </c>
       <c r="U8">
-        <v>5.5123447906844979E-4</v>
+        <v>4.2462147998883099E-4</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -891,64 +891,64 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.94837475940952953</v>
       </c>
       <c r="C9">
-        <v>0.453271559930704</v>
+        <v>0.67304762826290898</v>
       </c>
       <c r="D9">
-        <v>5.6735998646618997E-2</v>
+        <v>6.1518517098727687E-2</v>
       </c>
       <c r="E9">
-        <v>0.94957063534983366</v>
+        <v>0.95004132414577502</v>
       </c>
       <c r="F9">
-        <v>0.90081762810586863</v>
+        <v>0.50625125757702971</v>
       </c>
       <c r="G9">
-        <v>9.5147988340831477E-3</v>
+        <v>8.2615017175693521E-3</v>
       </c>
       <c r="H9">
-        <v>8.1225329307354058E-2</v>
+        <v>7.9375471831542685E-2</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.37264116308571332</v>
+        <v>0.58565325553033754</v>
       </c>
       <c r="K9">
-        <v>0.57313100773873127</v>
+        <v>0.50625125757702971</v>
       </c>
       <c r="L9">
-        <v>0.59302954966956323</v>
+        <v>0.74335355909086409</v>
       </c>
       <c r="M9">
-        <v>0.71463403582735019</v>
+        <v>0.71528854065627068</v>
       </c>
       <c r="N9">
-        <v>0.22387091854660129</v>
+        <v>0.18182192245582429</v>
       </c>
       <c r="O9">
-        <v>0.46561917121464319</v>
+        <v>0.4753293613459999</v>
       </c>
       <c r="P9">
-        <v>0.69816524252790313</v>
+        <v>0.57404155585128502</v>
       </c>
       <c r="Q9">
-        <v>0.32966706146381591</v>
+        <v>0.45709097909408641</v>
       </c>
       <c r="R9">
-        <v>0.78938851083694328</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>0.60375285921896915</v>
+        <v>0.45561502764892531</v>
       </c>
       <c r="T9">
-        <v>6.2818151660024447E-4</v>
+        <v>1.5205377988633759E-4</v>
       </c>
       <c r="U9">
-        <v>8.0311632079264672E-2</v>
+        <v>6.3976389569261424E-2</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -956,64 +956,64 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="B10">
-        <v>0.35207569997601929</v>
+        <v>0.5283345012943903</v>
       </c>
       <c r="C10">
-        <v>0.90038020163374255</v>
+        <v>0.90615425718217546</v>
       </c>
       <c r="D10">
-        <v>0.3223152380473927</v>
+        <v>0.20041739601650191</v>
       </c>
       <c r="E10">
-        <v>0.3429341953764995</v>
+        <v>0.5410858442676626</v>
       </c>
       <c r="F10">
-        <v>0.3189687169679028</v>
+        <v>0.23802887074054491</v>
       </c>
       <c r="G10">
-        <v>9.0043262853032102E-2</v>
+        <v>4.0718953073219537E-2</v>
       </c>
       <c r="H10">
-        <v>0.38156323336125791</v>
+        <v>0.2360370501094417</v>
       </c>
       <c r="I10">
-        <v>0.37264116308571332</v>
+        <v>0.58565325553033754</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.1504700644532978</v>
+        <v>0.23802887074054491</v>
       </c>
       <c r="L10">
-        <v>0.68822532335917397</v>
+        <v>0.79866460618412072</v>
       </c>
       <c r="M10">
-        <v>0.22336263077795701</v>
+        <v>0.37323289554093592</v>
       </c>
       <c r="N10">
-        <v>0.74828275424650503</v>
+        <v>0.45619627699737392</v>
       </c>
       <c r="O10">
-        <v>0.84203530939081839</v>
+        <v>0.89932172888413642</v>
       </c>
       <c r="P10">
-        <v>0.60485891245614309</v>
+        <v>0.999999999999994</v>
       </c>
       <c r="Q10">
-        <v>0.94807896339727671</v>
+        <v>0.85586447127219945</v>
       </c>
       <c r="R10">
-        <v>0.50410245459816527</v>
+        <v>0.58283915343624582</v>
       </c>
       <c r="S10">
-        <v>0.15406599280795891</v>
+        <v>0.2030499566920623</v>
       </c>
       <c r="T10">
-        <v>1.9278923196196452E-5</v>
+        <v>2.4880914454981389E-5</v>
       </c>
       <c r="U10">
-        <v>8.1757337751443091E-3</v>
+        <v>1.9026054102688698E-2</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1021,64 +1021,64 @@
         <v>0.01</v>
       </c>
       <c r="B11">
-        <v>0.55704549717734086</v>
+        <v>0.52932764821179301</v>
       </c>
       <c r="C11">
-        <v>0.19721675073972689</v>
+        <v>0.29037251833781252</v>
       </c>
       <c r="D11">
-        <v>1.4497062225910439E-2</v>
+        <v>1.3143137895877059E-2</v>
       </c>
       <c r="E11">
-        <v>0.61884473976267018</v>
+        <v>0.54200130472263996</v>
       </c>
       <c r="F11">
-        <v>0.66782499615690027</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.8774474283305091E-3</v>
+        <v>1.2927897113306679E-3</v>
       </c>
       <c r="H11">
-        <v>2.3756071628204568E-2</v>
+        <v>1.8648550529641771E-2</v>
       </c>
       <c r="I11">
-        <v>0.57313100773873127</v>
+        <v>0.50625125757702971</v>
       </c>
       <c r="J11">
-        <v>0.1504700644532978</v>
+        <v>0.23802887074054491</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.26547052624679912</v>
+        <v>0.30937034975603139</v>
       </c>
       <c r="M11">
-        <v>0.85711805430968613</v>
+        <v>0.76689331046100806</v>
       </c>
       <c r="N11">
-        <v>7.8657247845941983E-2</v>
+        <v>4.8384529210852761E-2</v>
       </c>
       <c r="O11">
-        <v>0.19336220697736289</v>
+        <v>0.16605594747062341</v>
       </c>
       <c r="P11">
-        <v>0.34112971167838457</v>
+        <v>0.2244899703038637</v>
       </c>
       <c r="Q11">
-        <v>0.12605748620296481</v>
+        <v>0.16569489581140731</v>
       </c>
       <c r="R11">
-        <v>0.39448987497375482</v>
+        <v>0.50307664806015628</v>
       </c>
       <c r="S11">
-        <v>0.94914925057922694</v>
+        <v>0.95167516945435071</v>
       </c>
       <c r="T11">
-        <v>4.8865779234204274E-3</v>
+        <v>2.2553358471369168E-3</v>
       </c>
       <c r="U11">
-        <v>0.25088668379505502</v>
+        <v>0.25180343565057223</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1086,64 +1086,64 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="B12">
-        <v>0.57522203692159246</v>
+        <v>0.68037996819332225</v>
       </c>
       <c r="C12">
-        <v>0.79332415221744912</v>
+        <v>0.89906099985016674</v>
       </c>
       <c r="D12">
-        <v>0.14541669024509141</v>
+        <v>9.9455462333274833E-2</v>
       </c>
       <c r="E12">
-        <v>0.55079613561659868</v>
+        <v>0.69132270014294284</v>
       </c>
       <c r="F12">
-        <v>0.51434047129439286</v>
+        <v>0.30937034975603128</v>
       </c>
       <c r="G12">
-        <v>2.867877398357991E-2</v>
+        <v>1.3683707657002841E-2</v>
       </c>
       <c r="H12">
-        <v>0.19135326917896539</v>
+        <v>0.12605748620296481</v>
       </c>
       <c r="I12">
-        <v>0.59302954966956323</v>
+        <v>0.74335355909086409</v>
       </c>
       <c r="J12">
-        <v>0.68822532335917397</v>
+        <v>0.79866460618412072</v>
       </c>
       <c r="K12">
-        <v>0.26547052624679912</v>
+        <v>0.30937034975603139</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.37311182258038422</v>
+        <v>0.48158056058895488</v>
       </c>
       <c r="N12">
-        <v>0.45914495471140693</v>
+        <v>0.28118651451251808</v>
       </c>
       <c r="O12">
-        <v>0.83379814519054563</v>
+        <v>0.67939533215084924</v>
       </c>
       <c r="P12">
-        <v>0.89192926225760427</v>
+        <v>0.79184290529109214</v>
       </c>
       <c r="Q12">
-        <v>0.63208295858502728</v>
+        <v>0.64700648008753903</v>
       </c>
       <c r="R12">
-        <v>0.77819187706995863</v>
+        <v>0.74117580438630437</v>
       </c>
       <c r="S12">
-        <v>0.27571506681276958</v>
+        <v>0.26497165799818961</v>
       </c>
       <c r="T12">
-        <v>4.2023374010138487E-5</v>
+        <v>1.7251184307992978E-5</v>
       </c>
       <c r="U12">
-        <v>1.7500563850380339E-2</v>
+        <v>2.2891120933223881E-2</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1151,64 +1151,64 @@
         <v>1.2E-2</v>
       </c>
       <c r="B13">
-        <v>0.70378374584886028</v>
+        <v>0.75156510803623333</v>
       </c>
       <c r="C13">
-        <v>0.28133381655828588</v>
+        <v>0.4423473482656769</v>
       </c>
       <c r="D13">
-        <v>2.849113281043078E-2</v>
+        <v>2.82517000099562E-2</v>
       </c>
       <c r="E13">
-        <v>0.76207468172208848</v>
+        <v>0.75901826008335305</v>
       </c>
       <c r="F13">
-        <v>0.81115021976852664</v>
+        <v>0.76689331046100806</v>
       </c>
       <c r="G13">
-        <v>4.480523412606535E-3</v>
+        <v>3.2549237224667698E-3</v>
       </c>
       <c r="H13">
-        <v>4.2715604812938401E-2</v>
+        <v>3.8179705693123851E-2</v>
       </c>
       <c r="I13">
-        <v>0.71463403582735019</v>
+        <v>0.71528854065627068</v>
       </c>
       <c r="J13">
-        <v>0.22336263077795701</v>
+        <v>0.37323289554093592</v>
       </c>
       <c r="K13">
-        <v>0.85711805430968613</v>
+        <v>0.76689331046100806</v>
       </c>
       <c r="L13">
-        <v>0.37311182258038422</v>
+        <v>0.48158056058895488</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0.12628525671555099</v>
+        <v>9.3382988897555905E-2</v>
       </c>
       <c r="O13">
-        <v>0.28268207226634962</v>
+        <v>0.28108095651665671</v>
       </c>
       <c r="P13">
-        <v>0.45876340036076452</v>
+        <v>0.35914421396184271</v>
       </c>
       <c r="Q13">
-        <v>0.1928087536411259</v>
+        <v>0.27483130923628918</v>
       </c>
       <c r="R13">
-        <v>0.52472382537558659</v>
+        <v>0.71322810375821377</v>
       </c>
       <c r="S13">
-        <v>0.90131055706952279</v>
+        <v>0.71463403582734886</v>
       </c>
       <c r="T13">
-        <v>3.5233127619616099E-3</v>
+        <v>7.6697263638206346E-4</v>
       </c>
       <c r="U13">
-        <v>0.19305130313144689</v>
+        <v>0.14586189668071639</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -1216,64 +1216,64 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="B14">
-        <v>0.20403088802123151</v>
+        <v>0.14370393491301711</v>
       </c>
       <c r="C14">
-        <v>0.6594875281429039</v>
+        <v>0.38726788280034619</v>
       </c>
       <c r="D14">
-        <v>0.50630407767564778</v>
+        <v>0.5629118637611128</v>
       </c>
       <c r="E14">
-        <v>0.20373064255080431</v>
+        <v>0.15781277673149671</v>
       </c>
       <c r="F14">
-        <v>0.18869404728341091</v>
+        <v>4.8384529210852761E-2</v>
       </c>
       <c r="G14">
-        <v>0.16767502868805939</v>
+        <v>0.1626418431846593</v>
       </c>
       <c r="H14">
-        <v>0.57129234308322197</v>
+        <v>0.61840446145124717</v>
       </c>
       <c r="I14">
-        <v>0.22387091854660129</v>
+        <v>0.18182192245582429</v>
       </c>
       <c r="J14">
-        <v>0.74828275424650503</v>
+        <v>0.45619627699737392</v>
       </c>
       <c r="K14">
-        <v>7.8657247845941983E-2</v>
+        <v>4.8384529210852761E-2</v>
       </c>
       <c r="L14">
-        <v>0.45914495471140693</v>
+        <v>0.28118651451251808</v>
       </c>
       <c r="M14">
-        <v>0.12628525671555099</v>
+        <v>9.3382988897555905E-2</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.5927787015106365</v>
+        <v>0.50408318197288349</v>
       </c>
       <c r="P14">
-        <v>0.39775072832928099</v>
+        <v>0.44156710104754698</v>
       </c>
       <c r="Q14">
-        <v>0.79322755613057194</v>
+        <v>0.56678127681391455</v>
       </c>
       <c r="R14">
-        <v>0.31340618270528697</v>
+        <v>0.17822723893415771</v>
       </c>
       <c r="S14">
-        <v>7.8744585189754662E-2</v>
+        <v>3.6020225672556409E-2</v>
       </c>
       <c r="T14">
-        <v>4.249974643069513E-6</v>
+        <v>2.9348305722731831E-7</v>
       </c>
       <c r="U14">
-        <v>2.8913294613449312E-3</v>
+        <v>1.350195972831052E-3</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1281,64 +1281,64 @@
         <v>1.4E-2</v>
       </c>
       <c r="B15">
-        <v>0.44458136983456092</v>
+        <v>0.41467409355957308</v>
       </c>
       <c r="C15">
-        <v>0.94811454983313659</v>
+        <v>0.80130513345751242</v>
       </c>
       <c r="D15">
-        <v>0.2151119253002452</v>
+        <v>0.21382939223183439</v>
       </c>
       <c r="E15">
-        <v>0.42963994164707148</v>
+        <v>0.43141267856301302</v>
       </c>
       <c r="F15">
-        <v>0.39984302395931032</v>
+        <v>0.16605594747062341</v>
       </c>
       <c r="G15">
-        <v>4.875951915301599E-2</v>
+        <v>3.9076848182855881E-2</v>
       </c>
       <c r="H15">
-        <v>0.26959240069849788</v>
+        <v>0.25445683037625488</v>
       </c>
       <c r="I15">
-        <v>0.46561917121464319</v>
+        <v>0.4753293613459999</v>
       </c>
       <c r="J15">
-        <v>0.84203530939081839</v>
+        <v>0.89932172888413642</v>
       </c>
       <c r="K15">
-        <v>0.19336220697736289</v>
+        <v>0.16605594747062341</v>
       </c>
       <c r="L15">
-        <v>0.83379814519054563</v>
+        <v>0.67939533215084924</v>
       </c>
       <c r="M15">
-        <v>0.28268207226634962</v>
+        <v>0.28108095651665671</v>
       </c>
       <c r="N15">
-        <v>0.5927787015106365</v>
+        <v>0.50408318197288349</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0.73594898335036496</v>
+        <v>0.89590925863239446</v>
       </c>
       <c r="Q15">
-        <v>0.78585647800005165</v>
+        <v>0.94826938461582999</v>
       </c>
       <c r="R15">
-        <v>0.62476987605171508</v>
+        <v>0.47152368651123111</v>
       </c>
       <c r="S15">
-        <v>0.1989975335975421</v>
+        <v>0.1353323465897753</v>
       </c>
       <c r="T15">
-        <v>2.0717688945850119E-5</v>
+        <v>3.7412124824022568E-6</v>
       </c>
       <c r="U15">
-        <v>1.051779755178585E-2</v>
+        <v>8.3707726855648829E-3</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1346,64 +1346,64 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="B16">
-        <v>0.68523961720982285</v>
+        <v>0.51446721467436141</v>
       </c>
       <c r="C16">
-        <v>0.70350792866947709</v>
+        <v>0.90340895308674318</v>
       </c>
       <c r="D16">
-        <v>0.12407193522044629</v>
+        <v>0.18658293087861949</v>
       </c>
       <c r="E16">
-        <v>0.65333410714472095</v>
+        <v>0.52833450129438519</v>
       </c>
       <c r="F16">
-        <v>0.61321506533544445</v>
+        <v>0.22448997030386361</v>
       </c>
       <c r="G16">
-        <v>2.485691651074301E-2</v>
+        <v>3.4925718204621058E-2</v>
       </c>
       <c r="H16">
-        <v>0.16402810412690161</v>
+        <v>0.22240546292865579</v>
       </c>
       <c r="I16">
-        <v>0.69816524252790313</v>
+        <v>0.57404155585128502</v>
       </c>
       <c r="J16">
-        <v>0.60485891245614309</v>
+        <v>0.999999999999994</v>
       </c>
       <c r="K16">
-        <v>0.34112971167838457</v>
+        <v>0.2244899703038637</v>
       </c>
       <c r="L16">
-        <v>0.89192926225760427</v>
+        <v>0.79184290529109214</v>
       </c>
       <c r="M16">
-        <v>0.45876340036076452</v>
+        <v>0.35914421396184271</v>
       </c>
       <c r="N16">
-        <v>0.39775072832928099</v>
+        <v>0.44156710104754698</v>
       </c>
       <c r="O16">
-        <v>0.73594898335036496</v>
+        <v>0.89590925863239446</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>0.55220758876333842</v>
+        <v>0.8514345534847001</v>
       </c>
       <c r="R16">
-        <v>0.89200948121920476</v>
+        <v>0.57098359455795689</v>
       </c>
       <c r="S16">
-        <v>0.35668200999828881</v>
+        <v>0.18932489474108241</v>
       </c>
       <c r="T16">
-        <v>1.221366949635752E-4</v>
+        <v>1.4131413301841811E-5</v>
       </c>
       <c r="U16">
-        <v>3.0283091627671271E-2</v>
+        <v>1.5654039374489729E-2</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -1411,64 +1411,64 @@
         <v>1.6E-2</v>
       </c>
       <c r="B17">
-        <v>0.30803564821317059</v>
+        <v>0.40076172203565641</v>
       </c>
       <c r="C17">
-        <v>0.84812838732540707</v>
+        <v>0.76324822724349817</v>
       </c>
       <c r="D17">
-        <v>0.34496305129166088</v>
+        <v>0.26095461426126432</v>
       </c>
       <c r="E17">
-        <v>0.30206483725983679</v>
+        <v>0.41610922609376511</v>
       </c>
       <c r="F17">
-        <v>0.28033563942121048</v>
+        <v>0.16569489581140731</v>
       </c>
       <c r="G17">
-        <v>9.575975764638503E-2</v>
+        <v>5.6044011127721172E-2</v>
       </c>
       <c r="H17">
-        <v>0.40723413999218172</v>
+        <v>0.3028891876154638</v>
       </c>
       <c r="I17">
-        <v>0.32966706146381591</v>
+        <v>0.45709097909408641</v>
       </c>
       <c r="J17">
-        <v>0.94807896339727671</v>
+        <v>0.85586447127219945</v>
       </c>
       <c r="K17">
-        <v>0.12605748620296481</v>
+        <v>0.16569489581140731</v>
       </c>
       <c r="L17">
-        <v>0.63208295858502728</v>
+        <v>0.64700648008753903</v>
       </c>
       <c r="M17">
-        <v>0.1928087536411259</v>
+        <v>0.27483130923628918</v>
       </c>
       <c r="N17">
-        <v>0.79322755613057194</v>
+        <v>0.56678127681391455</v>
       </c>
       <c r="O17">
-        <v>0.78585647800005165</v>
+        <v>0.94826938461582999</v>
       </c>
       <c r="P17">
-        <v>0.55220758876333842</v>
+        <v>0.8514345534847001</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>0.45234803412482111</v>
+        <v>0.45355720286704199</v>
       </c>
       <c r="S17">
-        <v>0.12811040880539429</v>
+        <v>0.1367829850551176</v>
       </c>
       <c r="T17">
-        <v>9.8691707956407122E-6</v>
+        <v>7.3263816517273721E-6</v>
       </c>
       <c r="U17">
-        <v>5.6849603119658353E-3</v>
+        <v>9.8612839871595644E-3</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -1476,64 +1476,64 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="B18">
-        <v>0.77943950638061077</v>
+        <v>0.9479313915184695</v>
       </c>
       <c r="C18">
-        <v>0.60063124558942804</v>
+        <v>0.67075701877517158</v>
       </c>
       <c r="D18">
-        <v>8.3637784284993077E-2</v>
+        <v>5.9478993548142983E-2</v>
       </c>
       <c r="E18">
-        <v>0.74042264896366117</v>
+        <v>0.94963985281576413</v>
       </c>
       <c r="F18">
-        <v>0.69570733809407304</v>
+        <v>0.50307664806015628</v>
       </c>
       <c r="G18">
-        <v>1.4065335514580189E-2</v>
+        <v>7.7768046436809263E-3</v>
       </c>
       <c r="H18">
-        <v>0.1175030651215235</v>
+        <v>7.7149499595232901E-2</v>
       </c>
       <c r="I18">
-        <v>0.78938851083694328</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0.50410245459816527</v>
+        <v>0.58283915343624582</v>
       </c>
       <c r="K18">
-        <v>0.39448987497375482</v>
+        <v>0.50307664806015628</v>
       </c>
       <c r="L18">
-        <v>0.77819187706995863</v>
+        <v>0.74117580438630437</v>
       </c>
       <c r="M18">
-        <v>0.52472382537558659</v>
+        <v>0.71322810375821377</v>
       </c>
       <c r="N18">
-        <v>0.31340618270528697</v>
+        <v>0.17822723893415771</v>
       </c>
       <c r="O18">
-        <v>0.62476987605171508</v>
+        <v>0.47152368651123111</v>
       </c>
       <c r="P18">
-        <v>0.89200948121920476</v>
+        <v>0.57098359455795689</v>
       </c>
       <c r="Q18">
-        <v>0.45234803412482111</v>
+        <v>0.45355720286704199</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18">
-        <v>0.4136891196594864</v>
+        <v>0.45205264428862613</v>
       </c>
       <c r="T18">
-        <v>1.235347658007622E-4</v>
+        <v>1.352684251475088E-4</v>
       </c>
       <c r="U18">
-        <v>3.5194223448060169E-2</v>
+        <v>6.1927410244693622E-2</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -1541,64 +1541,64 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="B19">
-        <v>0.58736698487219829</v>
+        <v>0.4754046496834905</v>
       </c>
       <c r="C19">
-        <v>0.20371214979071539</v>
+        <v>0.25162869698295548</v>
       </c>
       <c r="D19">
-        <v>1.341137180433952E-2</v>
+        <v>8.9690322740915741E-3</v>
       </c>
       <c r="E19">
-        <v>0.65208482822343583</v>
+        <v>0.48984806165572869</v>
       </c>
       <c r="F19">
-        <v>0.70350792866948753</v>
+        <v>0.95167516945435071</v>
       </c>
       <c r="G19">
-        <v>1.5746962594951159E-3</v>
+        <v>7.5742260359696343E-4</v>
       </c>
       <c r="H19">
-        <v>2.2820218490258899E-2</v>
+        <v>1.3265308726639891E-2</v>
       </c>
       <c r="I19">
-        <v>0.60375285921896915</v>
+        <v>0.45561502764892531</v>
       </c>
       <c r="J19">
-        <v>0.15406599280795891</v>
+        <v>0.2030499566920623</v>
       </c>
       <c r="K19">
-        <v>0.94914925057922694</v>
+        <v>0.95167516945435071</v>
       </c>
       <c r="L19">
-        <v>0.27571506681276958</v>
+        <v>0.26497165799818961</v>
       </c>
       <c r="M19">
-        <v>0.90131055706952279</v>
+        <v>0.71463403582734886</v>
       </c>
       <c r="N19">
-        <v>7.8744585189754662E-2</v>
+        <v>3.6020225672556409E-2</v>
       </c>
       <c r="O19">
-        <v>0.1989975335975421</v>
+        <v>0.1353323465897753</v>
       </c>
       <c r="P19">
-        <v>0.35668200999828881</v>
+        <v>0.18932489474108241</v>
       </c>
       <c r="Q19">
-        <v>0.12811040880539429</v>
+        <v>0.1367829850551176</v>
       </c>
       <c r="R19">
-        <v>0.4136891196594864</v>
+        <v>0.45205264428862613</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
-        <v>2.887748362556568E-3</v>
+        <v>2.0607847192843989E-3</v>
       </c>
       <c r="U19">
-        <v>0.2086246854104894</v>
+        <v>0.26387686130571181</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -1606,64 +1606,64 @@
         <v>1.9E-2</v>
       </c>
       <c r="B20">
-        <v>3.6098608069748319E-4</v>
+        <v>1.023182874321844E-4</v>
       </c>
       <c r="C20">
-        <v>4.575078001129776E-5</v>
+        <v>4.4543126640315608E-5</v>
       </c>
       <c r="D20">
-        <v>9.6350182920036187E-8</v>
+        <v>2.84872129893819E-8</v>
       </c>
       <c r="E20">
-        <v>8.5509680398509482E-4</v>
+        <v>1.6770209976527871E-4</v>
       </c>
       <c r="F20">
-        <v>1.258135812649875E-3</v>
+        <v>2.2553358471369129E-3</v>
       </c>
       <c r="G20">
-        <v>3.0276603790771811E-9</v>
+        <v>5.3769305521766254E-10</v>
       </c>
       <c r="H20">
-        <v>5.5205208293926266E-7</v>
+        <v>9.2433497746384397E-8</v>
       </c>
       <c r="I20">
-        <v>6.2818151660024447E-4</v>
+        <v>1.5205377988633759E-4</v>
       </c>
       <c r="J20">
-        <v>1.9278923196196452E-5</v>
+        <v>2.4880914454981389E-5</v>
       </c>
       <c r="K20">
-        <v>4.8865779234204274E-3</v>
+        <v>2.2553358471369168E-3</v>
       </c>
       <c r="L20">
-        <v>4.2023374010138487E-5</v>
+        <v>1.7251184307992978E-5</v>
       </c>
       <c r="M20">
-        <v>3.5233127619616099E-3</v>
+        <v>7.6697263638206346E-4</v>
       </c>
       <c r="N20">
-        <v>4.249974643069513E-6</v>
+        <v>2.9348305722731831E-7</v>
       </c>
       <c r="O20">
-        <v>2.0717688945850119E-5</v>
+        <v>3.7412124824022568E-6</v>
       </c>
       <c r="P20">
-        <v>1.221366949635752E-4</v>
+        <v>1.4131413301841811E-5</v>
       </c>
       <c r="Q20">
-        <v>9.8691707956407122E-6</v>
+        <v>7.3263816517273721E-6</v>
       </c>
       <c r="R20">
-        <v>1.235347658007622E-4</v>
+        <v>1.352684251475088E-4</v>
       </c>
       <c r="S20">
-        <v>2.887748362556568E-3</v>
+        <v>2.0607847192843989E-3</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
       <c r="U20">
-        <v>7.7537681452187923E-2</v>
+        <v>4.7753892288545437E-2</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -1671,61 +1671,61 @@
         <v>0.02</v>
       </c>
       <c r="B21">
-        <v>6.7506821448687998E-2</v>
+        <v>6.178578140636326E-2</v>
       </c>
       <c r="C21">
-        <v>1.354531692652167E-2</v>
+        <v>2.672990149423795E-2</v>
       </c>
       <c r="D21">
-        <v>2.0426249740795641E-4</v>
+        <v>2.2540278425247989E-4</v>
       </c>
       <c r="E21">
-        <v>9.4453362541475183E-2</v>
+        <v>7.0598207875375407E-2</v>
       </c>
       <c r="F21">
-        <v>0.1131965007178386</v>
+        <v>0.25180343565057223</v>
       </c>
       <c r="G21">
-        <v>1.2456939479086269E-5</v>
+        <v>1.036091127761262E-5</v>
       </c>
       <c r="H21">
-        <v>5.5123447906844979E-4</v>
+        <v>4.2462147998883099E-4</v>
       </c>
       <c r="I21">
-        <v>8.0311632079264672E-2</v>
+        <v>6.3976389569261424E-2</v>
       </c>
       <c r="J21">
-        <v>8.1757337751443091E-3</v>
+        <v>1.9026054102688698E-2</v>
       </c>
       <c r="K21">
-        <v>0.25088668379505502</v>
+        <v>0.25180343565057223</v>
       </c>
       <c r="L21">
-        <v>1.7500563850380339E-2</v>
+        <v>2.2891120933223881E-2</v>
       </c>
       <c r="M21">
-        <v>0.19305130313144689</v>
+        <v>0.14586189668071639</v>
       </c>
       <c r="N21">
-        <v>2.8913294613449312E-3</v>
+        <v>1.350195972831052E-3</v>
       </c>
       <c r="O21">
-        <v>1.051779755178585E-2</v>
+        <v>8.3707726855648829E-3</v>
       </c>
       <c r="P21">
-        <v>3.0283091627671271E-2</v>
+        <v>1.5654039374489729E-2</v>
       </c>
       <c r="Q21">
-        <v>5.6849603119658353E-3</v>
+        <v>9.8612839871595644E-3</v>
       </c>
       <c r="R21">
-        <v>3.5194223448060169E-2</v>
+        <v>6.1927410244693622E-2</v>
       </c>
       <c r="S21">
-        <v>0.2086246854104894</v>
+        <v>0.26387686130571181</v>
       </c>
       <c r="T21">
-        <v>7.7537681452187923E-2</v>
+        <v>4.7753892288545437E-2</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -1733,12 +1733,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:U21">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="5"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
